--- a/modelos/OBACOM4423013/OBACOM4423013_Sell Out_metricas.xlsx
+++ b/modelos/OBACOM4423013/OBACOM4423013_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,39 +473,39 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45023</v>
+        <v>45012</v>
       </c>
       <c r="B2" t="n">
-        <v>21.43243954265655</v>
+        <v>24.43525044529009</v>
       </c>
       <c r="C2" t="n">
-        <v>14.11727808216152</v>
+        <v>16.99484340674269</v>
       </c>
       <c r="D2" t="n">
-        <v>29.03834169922342</v>
+        <v>32.15611925166979</v>
       </c>
       <c r="E2" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45019</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45026</v>
+        <v>45023</v>
       </c>
       <c r="B3" t="n">
-        <v>22.45494737748531</v>
+        <v>20.63304740189822</v>
       </c>
       <c r="C3" t="n">
-        <v>14.27617715553443</v>
+        <v>13.77850569150814</v>
       </c>
       <c r="D3" t="n">
-        <v>30.44788609219873</v>
+        <v>27.9368910054426</v>
       </c>
       <c r="E3" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>45019</v>
@@ -513,41 +513,81 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45033</v>
+        <v>45026</v>
       </c>
       <c r="B4" t="n">
-        <v>23.85074134061799</v>
+        <v>22.95240101750555</v>
       </c>
       <c r="C4" t="n">
-        <v>16.35919270356557</v>
+        <v>14.85290996746668</v>
       </c>
       <c r="D4" t="n">
-        <v>31.25135960744029</v>
+        <v>30.36666570471475</v>
       </c>
       <c r="E4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45026</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="B5" t="n">
+        <v>24.16117489181087</v>
+      </c>
+      <c r="C5" t="n">
+        <v>16.82279283794599</v>
+      </c>
+      <c r="D5" t="n">
+        <v>31.87459554853397</v>
+      </c>
+      <c r="E5" t="n">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>45026</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45048</v>
+      </c>
+      <c r="B6" t="n">
+        <v>31.46660904443695</v>
+      </c>
+      <c r="C6" t="n">
+        <v>24.15502365440033</v>
+      </c>
+      <c r="D6" t="n">
+        <v>38.69000699702713</v>
+      </c>
+      <c r="E6" t="n">
+        <v>47</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>45061</v>
       </c>
-      <c r="B5" t="n">
-        <v>22.84794720624082</v>
-      </c>
-      <c r="C5" t="n">
-        <v>15.50936376745315</v>
-      </c>
-      <c r="D5" t="n">
-        <v>30.10181426222466</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="B7" t="n">
+        <v>24.00805372342226</v>
+      </c>
+      <c r="C7" t="n">
+        <v>16.54156361021764</v>
+      </c>
+      <c r="D7" t="n">
+        <v>31.66317684384708</v>
+      </c>
+      <c r="E7" t="n">
         <v>20</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F7" s="2" t="n">
         <v>45054</v>
       </c>
     </row>
@@ -562,7 +602,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -614,25 +654,25 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>133.8084549342957</v>
+        <v>241.286234578368</v>
       </c>
       <c r="C2" t="n">
-        <v>11.56756045734345</v>
+        <v>15.53339095556305</v>
       </c>
       <c r="D2" t="n">
-        <v>11.56756045734345</v>
+        <v>15.53339095556305</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3505321350710136</v>
+        <v>0.3304976799055968</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3505321350710136</v>
+        <v>0.3304976799055968</v>
       </c>
       <c r="G2" t="n">
-        <v>0.425024509448209</v>
+        <v>0.3959235946277794</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -640,27 +680,53 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>152.9415165636963</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12.36695259810178</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.36695259810178</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3747561393364174</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.3747561393364174</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.4611691185634205</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
-        <v>30.5178290357571</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5.524294437822545</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.180752829379175</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.1904865859409434</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.1775606434269659</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.2051568614813402</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="B4" t="n">
+        <v>22.80182958406067</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.7751261327907</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.33243206484898</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1661452209352904</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1836293621922656</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1727236928293894</v>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
     </row>

--- a/modelos/OBACOM4423013/OBACOM4423013_Sell Out_metricas.xlsx
+++ b/modelos/OBACOM4423013/OBACOM4423013_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45012</v>
       </c>
       <c r="B2" t="n">
-        <v>24.43525044529009</v>
+        <v>24.43525044557216</v>
       </c>
       <c r="C2" t="n">
-        <v>16.99484340674269</v>
+        <v>16.85280492874666</v>
       </c>
       <c r="D2" t="n">
-        <v>32.15611925166979</v>
+        <v>32.07773338851941</v>
       </c>
       <c r="E2" t="n">
         <v>23</v>
@@ -493,39 +493,39 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45023</v>
+        <v>45017</v>
       </c>
       <c r="B3" t="n">
-        <v>20.63304740189822</v>
+        <v>31.11053456864043</v>
       </c>
       <c r="C3" t="n">
-        <v>13.77850569150814</v>
+        <v>23.84383325031272</v>
       </c>
       <c r="D3" t="n">
-        <v>27.9368910054426</v>
+        <v>38.91322699496349</v>
       </c>
       <c r="E3" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45019</v>
+        <v>45012</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45026</v>
+        <v>45023</v>
       </c>
       <c r="B4" t="n">
-        <v>22.95240101750555</v>
+        <v>18.81087563895965</v>
       </c>
       <c r="C4" t="n">
-        <v>14.85290996746668</v>
+        <v>10.55594060749024</v>
       </c>
       <c r="D4" t="n">
-        <v>30.36666570471475</v>
+        <v>26.3111018132175</v>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>45019</v>
@@ -533,42 +533,42 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45033</v>
+        <v>45026</v>
       </c>
       <c r="B5" t="n">
-        <v>24.16117489181087</v>
+        <v>21.81708835170491</v>
       </c>
       <c r="C5" t="n">
-        <v>16.82279283794599</v>
+        <v>13.40293028047232</v>
       </c>
       <c r="D5" t="n">
-        <v>31.87459554853397</v>
+        <v>29.78976058037181</v>
       </c>
       <c r="E5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45026</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45048</v>
+        <v>45033</v>
       </c>
       <c r="B6" t="n">
-        <v>31.46660904443695</v>
+        <v>23.19237702363052</v>
       </c>
       <c r="C6" t="n">
-        <v>24.15502365440033</v>
+        <v>15.14071221651389</v>
       </c>
       <c r="D6" t="n">
-        <v>38.69000699702713</v>
+        <v>30.93349597512874</v>
       </c>
       <c r="E6" t="n">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45047</v>
+        <v>45026</v>
       </c>
     </row>
     <row r="7">
@@ -576,13 +576,13 @@
         <v>45061</v>
       </c>
       <c r="B7" t="n">
-        <v>24.00805372342226</v>
+        <v>21.70023162611533</v>
       </c>
       <c r="C7" t="n">
-        <v>16.54156361021764</v>
+        <v>13.26821929033774</v>
       </c>
       <c r="D7" t="n">
-        <v>31.66317684384708</v>
+        <v>29.55470014819576</v>
       </c>
       <c r="E7" t="n">
         <v>20</v>
@@ -654,25 +654,25 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>241.286234578368</v>
+        <v>201.3312501330688</v>
       </c>
       <c r="C2" t="n">
-        <v>15.53339095556305</v>
+        <v>14.18912436104035</v>
       </c>
       <c r="D2" t="n">
-        <v>15.53339095556305</v>
+        <v>14.18912436104035</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3304976799055968</v>
+        <v>0.4299734654860713</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3304976799055968</v>
+        <v>0.4299734654860713</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3959235946277794</v>
+        <v>0.5477276415830624</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,25 +680,25 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>152.9415165636963</v>
+        <v>327.99146236192</v>
       </c>
       <c r="C3" t="n">
-        <v>12.36695259810178</v>
+        <v>18.11053456864043</v>
       </c>
       <c r="D3" t="n">
-        <v>12.36695259810178</v>
+        <v>18.11053456864043</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3747561393364174</v>
+        <v>1.393118043741571</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3747561393364174</v>
+        <v>1.393118043741571</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4611691185634205</v>
+        <v>0.8211432822451341</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>22.80182958406067</v>
+        <v>26.40981477585402</v>
       </c>
       <c r="C4" t="n">
-        <v>4.7751261327907</v>
+        <v>5.139048041792761</v>
       </c>
       <c r="D4" t="n">
-        <v>4.33243206484898</v>
+        <v>4.281504174088017</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1661452209352904</v>
+        <v>0.1551100893638673</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1836293621922656</v>
+        <v>0.1426372212799434</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1727236928293894</v>
+        <v>0.1701111619876265</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBACOM4423013/OBACOM4423013_Sell Out_metricas.xlsx
+++ b/modelos/OBACOM4423013/OBACOM4423013_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,10 +479,10 @@
         <v>24.43525044557216</v>
       </c>
       <c r="C2" t="n">
-        <v>16.85280492874666</v>
+        <v>16.7843661997634</v>
       </c>
       <c r="D2" t="n">
-        <v>32.07773338851941</v>
+        <v>31.72530361014949</v>
       </c>
       <c r="E2" t="n">
         <v>23</v>
@@ -493,39 +493,39 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45017</v>
+        <v>45023</v>
       </c>
       <c r="B3" t="n">
-        <v>31.11053456864043</v>
+        <v>20.63304740193119</v>
       </c>
       <c r="C3" t="n">
-        <v>23.84383325031272</v>
+        <v>13.14999430966834</v>
       </c>
       <c r="D3" t="n">
-        <v>38.91322699496349</v>
+        <v>27.93124193561178</v>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45012</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45023</v>
+        <v>45026</v>
       </c>
       <c r="B4" t="n">
-        <v>18.81087563895965</v>
+        <v>22.95240101753967</v>
       </c>
       <c r="C4" t="n">
-        <v>10.55594060749024</v>
+        <v>15.24557410279811</v>
       </c>
       <c r="D4" t="n">
-        <v>26.3111018132175</v>
+        <v>30.17038129947907</v>
       </c>
       <c r="E4" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>45019</v>
@@ -533,61 +533,41 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="B5" t="n">
+        <v>24.16117301436006</v>
+      </c>
+      <c r="C5" t="n">
+        <v>16.55943420244655</v>
+      </c>
+      <c r="D5" t="n">
+        <v>30.83271520744509</v>
+      </c>
+      <c r="E5" t="n">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2" t="n">
         <v>45026</v>
-      </c>
-      <c r="B5" t="n">
-        <v>21.81708835170491</v>
-      </c>
-      <c r="C5" t="n">
-        <v>13.40293028047232</v>
-      </c>
-      <c r="D5" t="n">
-        <v>29.78976058037181</v>
-      </c>
-      <c r="E5" t="n">
-        <v>30</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>45019</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45033</v>
+        <v>45061</v>
       </c>
       <c r="B6" t="n">
-        <v>23.19237702363052</v>
+        <v>22.81905830911512</v>
       </c>
       <c r="C6" t="n">
-        <v>15.14071221651389</v>
+        <v>15.6042809236858</v>
       </c>
       <c r="D6" t="n">
-        <v>30.93349597512874</v>
+        <v>29.97923967157492</v>
       </c>
       <c r="E6" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45026</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45061</v>
-      </c>
-      <c r="B7" t="n">
-        <v>21.70023162611533</v>
-      </c>
-      <c r="C7" t="n">
-        <v>13.26821929033774</v>
-      </c>
-      <c r="D7" t="n">
-        <v>29.55470014819576</v>
-      </c>
-      <c r="E7" t="n">
-        <v>20</v>
-      </c>
-      <c r="F7" s="2" t="n">
         <v>45054</v>
       </c>
     </row>
@@ -602,7 +582,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -657,22 +637,22 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>201.3312501330688</v>
+        <v>152.9415165628808</v>
       </c>
       <c r="C2" t="n">
-        <v>14.18912436104035</v>
+        <v>12.36695259806881</v>
       </c>
       <c r="D2" t="n">
-        <v>14.18912436104035</v>
+        <v>12.36695259806881</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4299734654860713</v>
+        <v>0.3747561393354184</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4299734654860713</v>
+        <v>0.3747561393354184</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5477276415830624</v>
+        <v>0.4611691185619075</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,54 +660,28 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>327.99146236192</v>
+        <v>20.77248290155982</v>
       </c>
       <c r="C3" t="n">
-        <v>18.11053456864043</v>
+        <v>4.557683940507483</v>
       </c>
       <c r="D3" t="n">
-        <v>18.11053456864043</v>
+        <v>4.035183680696887</v>
       </c>
       <c r="E3" t="n">
-        <v>1.393118043741571</v>
+        <v>0.1512827944441536</v>
       </c>
       <c r="F3" t="n">
-        <v>1.393118043741571</v>
+        <v>0.1539045092044287</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8211432822451341</v>
+        <v>0.160104248322943</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B4" t="n">
-        <v>26.40981477585402</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5.139048041792761</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.281504174088017</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.1551100893638673</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.1426372212799434</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.1701111619876265</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
